--- a/socket_sample/ネットワークプログラミング最終課題指示書.xlsx
+++ b/socket_sample/ネットワークプログラミング最終課題指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca582\Desktop\socket_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C19037-2C7E-476A-B90C-5498DC40A572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF076C4-BB23-438A-9E78-E7EB438B20DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-89" yWindow="-89" windowWidth="20359" windowHeight="10936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
@@ -601,58 +601,6 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上と連動させる感じ
-UIとか</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定の画像からなら簡単かも</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBでデフォルトで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tolk_contens
-だけでいけるはず</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>forum_membarと
-forum_contensで
-いけるかも
-画面遷移あるならsocketid保存</t>
-    <rPh sb="35" eb="37">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,6 +791,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.899999999999999" x14ac:dyDescent="1"/>
@@ -1176,7 +1124,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11">
@@ -1200,11 +1148,11 @@
       </c>
       <c r="H2" s="7">
         <f>SUM(G2:G19)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="11">
         <v>2</v>
       </c>
@@ -1226,7 +1174,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
@@ -1248,7 +1196,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="11">
         <v>4</v>
       </c>
@@ -1270,7 +1218,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="11">
         <v>5</v>
       </c>
@@ -1292,7 +1240,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
@@ -1314,7 +1262,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11">
         <v>7</v>
       </c>
@@ -1336,7 +1284,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="11">
         <v>8</v>
       </c>
@@ -1357,8 +1305,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="35.75" x14ac:dyDescent="1">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="1">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="12">
@@ -1370,20 +1318,20 @@
       <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="3">
         <v>10</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="12">
         <v>10</v>
       </c>
@@ -1405,7 +1353,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="12">
         <v>11</v>
       </c>
@@ -1427,7 +1375,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -1448,8 +1396,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="71.5" x14ac:dyDescent="1">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:8" ht="35.75" x14ac:dyDescent="1">
+      <c r="A14" s="16"/>
       <c r="B14" s="12">
         <v>13</v>
       </c>
@@ -1467,12 +1415,10 @@
         <f t="shared" ref="G14:G19" si="1">E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="35.75" x14ac:dyDescent="1">
-      <c r="A15" s="15"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="1">
+      <c r="A15" s="16"/>
       <c r="B15" s="12">
         <v>14</v>
       </c>
@@ -1490,12 +1436,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="53.6" x14ac:dyDescent="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12">
         <v>15</v>
       </c>
@@ -1513,12 +1457,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="1">
-      <c r="A17" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="1">
+      <c r="A17" s="17"/>
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -1536,12 +1477,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="71.5" x14ac:dyDescent="1">
-      <c r="A18" s="14" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="71.5" x14ac:dyDescent="1">
+      <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="13">
@@ -1564,8 +1502,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="35.75" x14ac:dyDescent="1">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:7" ht="35.75" x14ac:dyDescent="1">
+      <c r="A19" s="17"/>
       <c r="B19" s="13">
         <v>18</v>
       </c>
@@ -1584,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="1">
       <c r="F20" s="6">
         <f>SUM(F2:F19)</f>
         <v>160</v>

--- a/socket_sample/ネットワークプログラミング最終課題指示書.xlsx
+++ b/socket_sample/ネットワークプログラミング最終課題指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca582\Desktop\socket_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF076C4-BB23-438A-9E78-E7EB438B20DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1EDE5-6C0E-45BC-A452-DF4AA20A4227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-89" yWindow="-89" windowWidth="20359" windowHeight="10936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
@@ -601,6 +601,53 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上と連動させる感じ
+UIとか</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定の画像からなら簡単かも</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBでデフォルトで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forum_membarと
+forum_contensで
+いけるかも
+画面遷移あるならsocketid保存</t>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1086,7 +1133,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.899999999999999" x14ac:dyDescent="1"/>
@@ -1396,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="35.75" x14ac:dyDescent="1">
+    <row r="14" spans="1:8" ht="71.5" x14ac:dyDescent="1">
       <c r="A14" s="16"/>
       <c r="B14" s="12">
         <v>13</v>
@@ -1415,9 +1462,11 @@
         <f t="shared" ref="G14:G19" si="1">E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="1">
+      <c r="H14" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.75" x14ac:dyDescent="1">
       <c r="A15" s="16"/>
       <c r="B15" s="12">
         <v>14</v>
@@ -1436,7 +1485,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="53.6" x14ac:dyDescent="1">
       <c r="A16" s="16"/>
@@ -1457,8 +1508,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="1">
+      <c r="H16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="1">
       <c r="A17" s="17"/>
       <c r="B17" s="12">
         <v>16</v>
@@ -1477,8 +1531,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="71.5" x14ac:dyDescent="1">
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.5" x14ac:dyDescent="1">
       <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
@@ -1502,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="35.75" x14ac:dyDescent="1">
+    <row r="19" spans="1:8" ht="35.75" x14ac:dyDescent="1">
       <c r="A19" s="17"/>
       <c r="B19" s="13">
         <v>18</v>
@@ -1522,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="1">
       <c r="F20" s="6">
         <f>SUM(F2:F19)</f>
         <v>160</v>
